--- a/fuentes/contenidos/grado10/guion01/SolicitudGraficaMA_!0_01_COREC80.xlsx
+++ b/fuentes/contenidos/grado10/guion01/SolicitudGraficaMA_!0_01_COREC80.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Desktop\Nueva carpeta (4)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado10\guion01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="192">
   <si>
     <t>Fecha:</t>
   </si>
@@ -600,6 +600,9 @@
   </si>
   <si>
     <t>Ilustración</t>
+  </si>
+  <si>
+    <t>texto en archvio word adjunto</t>
   </si>
 </sst>
 </file>
@@ -4020,9 +4023,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43:E44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -4341,7 +4344,9 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J10" s="63"/>
-      <c r="K10" s="64"/>
+      <c r="K10" s="64" t="s">
+        <v>191</v>
+      </c>
       <c r="O10" s="2" t="str">
         <f>'Definición técnica de imagenes'!A12</f>
         <v>M12D</v>
@@ -4956,7 +4961,9 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J25" s="63"/>
-      <c r="K25" s="64"/>
+      <c r="K25" s="64" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="26" spans="1:15" s="11" customFormat="1" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="str">
@@ -5328,7 +5335,9 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J35" s="63"/>
-      <c r="K35" s="65"/>
+      <c r="K35" s="65" t="s">
+        <v>191</v>
+      </c>
       <c r="O35" s="2"/>
     </row>
     <row r="36" spans="1:15" s="11" customFormat="1" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
